--- a/qa/01.测试用例/活动相关/签到系统设计测试用例.xlsx
+++ b/qa/01.测试用例/活动相关/签到系统设计测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12130" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12130"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="备注" sheetId="3" r:id="rId6"/>
     <sheet name="im" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="267">
   <si>
     <t>更新日期</t>
   </si>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>当日无可签到内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>当日已签到</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -441,18 +437,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>点击无反应</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>弹出奖励领取界面</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>点击无反应</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>当日签到可领取的奖励</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -548,10 +536,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>奖励列表中第一个为可签到样式，后五个为补签样式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>奖励列表中前5个位已签到样式，第6个为可签到样式，第7个位补签样式</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -707,27 +691,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>显示第1个格子为可签到样式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示第1个格子为已签到样式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>根据开服时间和玩家签到情况显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示前5个格子为已签到样式，6-10个格子显示可补签样式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开服后10天，玩家签到5天，未签到5天</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器开服时间不在自然月第一天（假设15号开服），查看签到界面显示情况</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -876,6 +840,238 @@
   </si>
   <si>
     <t>svn://192.168.199.122/gd/活动相关/签到系统设计.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日无可签到内容，无补签内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日无可签到内容，有补签内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出tips</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励列表中第一个为可签到样式，后6个为补签样式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS:大于200的都取200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sign_buqian_001</t>
+  </si>
+  <si>
+    <t>当日未签到成功点击补签按钮</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先完成当日签到后再进行补签操作</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器开服时间不在自然月第一天（假设5号开服），查看签到界面显示情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示第1个格子为可签到样式,第2-5个格子显示可补签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>,第2-5个格子显示可补签</t>
+  </si>
+  <si>
+    <t>开服后10天，玩家签到5天，未签到5天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示前5个格子为已签到样式，6-15个格子显示可补签样式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月签到奖励</t>
+  </si>
+  <si>
+    <t>Monthly Login Reward</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月已签到：n/m</t>
+  </si>
+  <si>
+    <t>Logins this month: n/m</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthlyevent_count_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可补签次数：n</t>
+  </si>
+  <si>
+    <t>Claimable missed logins: n</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>补签</t>
+    <rPh sb="0" eb="1">
+      <t>bu'qian</t>
+    </rPh>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missed Login</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到成功</t>
+  </si>
+  <si>
+    <t>Successfully logged in!</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先完成当日签到后再进行补签操作</t>
+  </si>
+  <si>
+    <t>Please complete today's login before claiming missed logins.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthlyevent_title</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthlyevent_count_001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthlyevent_reward_001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sign_buqian_001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug相关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部签到样式显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月31天，配置可签到为30天，已签到29天，第30天未签到，第31天登陆时，查看显示情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第30个签到格子显示为签到样式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击第30个格子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可成功签到</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到后跨天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击签到时一刻，恰好0点跨天更新，查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击签到时一刻，恰好0点跨月更新，查看触发情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以签到成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下月第一天签到成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测不了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行测试，并根据bug复查结果回归用例</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端：9426
+服务器：9115</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangl</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -988,14 +1184,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
@@ -1024,6 +1212,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1112,7 +1306,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1121,6 +1315,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,20 +1407,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1234,27 +1422,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="常规 6" xfId="2"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="20">
     <dxf>
       <font>
         <b/>
@@ -1343,6 +1541,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF0000FF"/>
       </font>
     </dxf>
@@ -1359,6 +1564,34 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1377,16 +1610,97 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>97428</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>652990</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>192724</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>18552</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>596187</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>177386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13606990" y="9201150"/>
+          <a:ext cx="3480147" cy="2025236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>212670</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>128557</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>119421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14106470" y="2114550"/>
+          <a:ext cx="8285187" cy="6291621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>322569</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>148362</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1403,46 +1717,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12490450" y="1570628"/>
-          <a:ext cx="7241224" cy="3788274"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>138640</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>81837</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>31336</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12483040" y="7213600"/>
-          <a:ext cx="3480147" cy="2025236"/>
+          <a:off x="5924550" y="0"/>
+          <a:ext cx="10247619" cy="6904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1719,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B22:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1754,24 +2030,32 @@
         <v>42420</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F23" s="11">
         <v>8723</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="13"/>
+    <row r="24" spans="2:6" ht="29" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>42430</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="31"/>
+      <c r="F24" s="48" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="25" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
@@ -1782,7 +2066,7 @@
     </row>
     <row r="26" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
-      <c r="C26" s="39"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="13"/>
       <c r="E26" s="10"/>
       <c r="F26" s="15"/>
@@ -1830,13 +2114,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -1851,7 +2135,9 @@
     <col min="8" max="8" width="8.7265625" style="17"/>
     <col min="9" max="9" width="13.453125" style="17" customWidth="1"/>
     <col min="10" max="10" width="28.453125" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="17"/>
+    <col min="11" max="12" width="8.7265625" style="17"/>
+    <col min="13" max="13" width="12.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1903,7 +2189,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="29">
         <v>1</v>
@@ -1915,894 +2201,1332 @@
         <v>32</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F4" s="17" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" s="17" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="29">
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="29">
         <v>1</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="18" t="s">
+        <v>173</v>
+      </c>
       <c r="F8" s="17" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>185</v>
+        <v>176</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" s="17" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>189</v>
+        <v>176</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="29">
+      <c r="F10" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="29">
         <v>2</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="18" t="s">
+        <v>181</v>
+      </c>
       <c r="F11" s="17" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12" s="17" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>189</v>
+        <v>178</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" s="17">
+        <v>2229</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="29">
+      <c r="F13" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="29">
         <v>3</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="18" t="s">
+        <v>182</v>
+      </c>
       <c r="F14" s="17" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>185</v>
+        <v>176</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="17" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="29">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="29">
-        <v>1</v>
-      </c>
-      <c r="E17" s="18" t="s">
+      <c r="G18" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="H18" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="D19" s="29">
+        <v>2</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="29" x14ac:dyDescent="0.25">
-      <c r="D18" s="29">
-        <v>2</v>
-      </c>
-      <c r="E18" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="H19" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="29">
+        <v>3</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="29">
-        <v>3</v>
-      </c>
-      <c r="E19" s="18" t="s">
+      <c r="G20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="H20" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="29">
+        <v>4</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="29">
-        <v>4</v>
-      </c>
-      <c r="E20" s="18" t="s">
+      <c r="F21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="G21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G22" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="29">
+      <c r="H22" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="29">
         <v>5</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="F23" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F24" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G27" s="17" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F25" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="17" t="s">
+      <c r="H27" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="29">
+        <v>6</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="17" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="29">
+      <c r="G31" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="29">
+        <v>7</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F34" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D37" s="29">
+        <v>8</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38" s="29">
+        <v>9</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F39" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="I39" s="17">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F40" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D41" s="29">
+        <v>10</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F42" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F43" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D44" s="29">
+        <v>11</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F45" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D46" s="29">
+        <v>12</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D47" s="29">
+        <v>13</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H48" s="30"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="29">
+        <v>1</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="17"/>
+      <c r="F50" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F51" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F52" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D53" s="29">
+        <v>2</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F54" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="I54" s="17">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F55" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D56" s="29">
+        <v>3</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="17"/>
+      <c r="F57" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F58" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D59" s="29">
+        <v>4</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D60" s="29">
+        <v>5</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="H60" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F61" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H61" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H62" s="30"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="29">
+        <v>1</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H63" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D64" s="29">
+        <v>2</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H64" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E65" s="17"/>
+      <c r="F65" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="H65" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H66" s="30"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="29">
+        <v>1</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H67" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M67" s="47"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F68" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H68" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M68" s="47"/>
+    </row>
+    <row r="69" spans="2:13" ht="29" x14ac:dyDescent="0.25">
+      <c r="F69" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M69" s="47"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F70" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M70" s="47"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C71" s="17"/>
+      <c r="D71" s="29">
+        <v>2</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H71" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M71" s="47"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F72" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H72" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M72" s="47"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D73" s="29">
+        <v>3</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M73" s="47"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F74" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H74" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M74" s="47"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D75" s="29">
+        <v>4</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="H75" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M75" s="47"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D76" s="29">
+        <v>5</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M76" s="47"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F77" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H77" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M77" s="47"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D78" s="29">
         <v>6</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="29">
-        <v>7</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D36" s="29">
-        <v>8</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="29">
-        <v>9</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D40" s="29">
-        <v>10</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F41" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F42" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D43" s="29">
-        <v>11</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F44" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D45" s="29">
-        <v>12</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D46" s="29">
-        <v>13</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="29">
+      <c r="E78" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H78" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M78" s="47"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F79" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H79" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F80" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H80" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F81" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H81" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H82" s="30"/>
+    </row>
+    <row r="83" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B83" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" s="29">
         <v>1</v>
       </c>
-      <c r="E48" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="17"/>
-      <c r="F49" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F50" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F51" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D52" s="29">
+      <c r="E83" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="H83" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F84" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H84" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F85" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="H85" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="F86" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="H86" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H87" s="30"/>
+    </row>
+    <row r="88" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="B88" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" s="29">
+        <v>1</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H88" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="I88" s="17">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F89" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="H89" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="I89" s="17">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D90" s="29">
         <v>2</v>
       </c>
-      <c r="E52" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F53" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F54" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D55" s="29">
-        <v>3</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="17"/>
-      <c r="F56" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F57" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D58" s="29">
-        <v>4</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D59" s="29">
-        <v>5</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F60" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="D62" s="29">
+      <c r="E90" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H90" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="I90" s="17">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F91" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="H91" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="I91" s="17">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H92" s="30"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D93" s="29">
         <v>1</v>
       </c>
-      <c r="E62" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="G62" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D63" s="29">
+      <c r="E93" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="H93" s="30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F94" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="H94" s="30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="D95" s="29">
         <v>2</v>
       </c>
-      <c r="E63" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E64" s="17"/>
-      <c r="F64" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66" s="29">
+      <c r="E95" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="H95" s="30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F96" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="H96" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="I96" s="17">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="D98" s="29">
         <v>1</v>
       </c>
-      <c r="E66" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F67" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G67" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" ht="29" x14ac:dyDescent="0.25">
-      <c r="F68" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G68" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F69" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="17"/>
-      <c r="D70" s="29">
+      <c r="E98" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="J98" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D99" s="29">
         <v>2</v>
       </c>
-      <c r="E70" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G70" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F71" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G71" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D72" s="29">
-        <v>3</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F73" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D74" s="29">
-        <v>4</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D75" s="29">
-        <v>5</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F76" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D77" s="29">
-        <v>6</v>
-      </c>
-      <c r="E77" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G77" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F78" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F79" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F80" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" ht="29" x14ac:dyDescent="0.25">
-      <c r="B82" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="D82" s="29">
+      <c r="E99" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" ht="29" x14ac:dyDescent="0.25">
+      <c r="B102" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="D102" s="29">
         <v>1</v>
       </c>
-      <c r="E82" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="G82" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F83" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G83" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F84" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" ht="29" x14ac:dyDescent="0.25">
-      <c r="F85" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G85" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" ht="29" x14ac:dyDescent="0.25">
-      <c r="B87" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C87" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="D87" s="29">
-        <v>1</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F87" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="G87" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F88" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="G88" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="29" x14ac:dyDescent="0.25">
-      <c r="D89" s="29">
+      <c r="E102" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="H102" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="I102" s="17">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D103" s="29">
         <v>2</v>
       </c>
-      <c r="E89" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="F89" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G89" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F90" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="G90" s="17" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D92" s="29">
-        <v>1</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="F92" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="G92" s="17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F93" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" ht="29" x14ac:dyDescent="0.25">
-      <c r="D94" s="29">
-        <v>2</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="F94" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="G94" s="17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F95" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="G95" s="17" t="s">
-        <v>201</v>
-      </c>
+      <c r="E103" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="H103" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E114" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="J71">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="8">
+      <formula>LEN(TRIM(J71))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="7">
+      <formula>LEN(TRIM(E114))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H96">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H96">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H102:H103">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H102:H103">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2811,199 +3535,208 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="49"/>
+    <col min="1" max="16384" width="8.7265625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="J2" s="49">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="P1" s="45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="J2" s="45">
         <v>1</v>
       </c>
-      <c r="K2" s="49">
+      <c r="K2" s="45">
         <v>2</v>
       </c>
-      <c r="L2" s="49">
+      <c r="L2" s="45">
         <v>3</v>
       </c>
-      <c r="M2" s="49">
+      <c r="M2" s="45">
         <v>4</v>
       </c>
-      <c r="N2" s="49">
+      <c r="N2" s="45">
         <v>5</v>
       </c>
-      <c r="O2" s="49">
+      <c r="O2" s="45">
         <v>6</v>
       </c>
-      <c r="P2" s="49">
+      <c r="P2" s="45">
         <v>7</v>
       </c>
-      <c r="Q2" s="49">
+      <c r="Q2" s="45">
         <v>8</v>
       </c>
-      <c r="R2" s="49">
+      <c r="R2" s="45">
         <v>9</v>
       </c>
-      <c r="S2" s="49">
+      <c r="S2" s="45">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3" s="43">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="40">
         <v>20</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="40">
         <v>5</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="40">
         <v>3</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="40">
         <v>200</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="H3" s="43">
+      <c r="F3" s="40"/>
+      <c r="H3" s="40">
         <v>1</v>
       </c>
-      <c r="I3" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="J3" s="49">
+      <c r="I3" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="J3" s="45">
         <f>($B$3+$C$3*(J2-1))*POWER(2,ROUNDDOWN((J2-1)/$D$3,0))</f>
         <v>20</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K3" s="45">
         <f t="shared" ref="K3:S3" si="0">($B$3+$C$3*(K2-1))*POWER(2,ROUNDDOWN((K2-1)/$D$3,0))</f>
         <v>25</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="45">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="45">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N3" s="45">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="O3" s="49">
+      <c r="O3" s="45">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="P3" s="49">
+      <c r="P3" s="45">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="Q3" s="49">
+      <c r="Q3" s="45">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="R3" s="49">
+      <c r="R3" s="45">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="S3" s="49">
+      <c r="S3" s="45">
         <f t="shared" si="0"/>
         <v>520</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="49">
+      <c r="U3" s="45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="45">
         <v>30</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="45">
         <v>4</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="45">
         <v>4</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="45">
         <v>200</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="45">
         <v>2</v>
       </c>
-      <c r="I4" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="49">
+      <c r="I4" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="J4" s="45">
         <f>($B$4+$C$4*(J2-1))*POWER(2,ROUNDDOWN((J2-1)/$D$4,0))</f>
         <v>30</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="45">
         <f t="shared" ref="K4:S4" si="1">($B$4+$C$4*(K2-1))*POWER(2,ROUNDDOWN((K2-1)/$D$4,0))</f>
         <v>34</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="45">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="45">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="45">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="45">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="P4" s="49">
+      <c r="P4" s="45">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="Q4" s="49">
+      <c r="Q4" s="45">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="R4" s="49">
+      <c r="R4" s="45">
         <f t="shared" si="1"/>
         <v>248</v>
       </c>
-      <c r="S4" s="49">
+      <c r="S4" s="45">
         <f t="shared" si="1"/>
         <v>264</v>
+      </c>
+      <c r="U4" s="45" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3014,196 +3747,250 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D32"/>
+  <dimension ref="A2:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="29.36328125" customWidth="1"/>
-    <col min="3" max="4" width="62.453125" customWidth="1"/>
+    <col min="1" max="1" width="30.90625" customWidth="1"/>
+    <col min="2" max="2" width="40.08984375" customWidth="1"/>
+    <col min="3" max="3" width="62.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="36"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="29"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="36"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="30"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="43"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="30"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="46"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="46"/>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="37"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="36"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="34"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="33"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="29"/>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="37"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="34"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="36"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="29"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="37"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="36"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="36"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="38"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="38"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="29"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="37"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="38"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="38"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="38"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="40"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="38"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="38"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="38"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D11">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"F"</formula>
@@ -3263,14 +4050,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="B8:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2237</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3305,7 +4116,7 @@
   <dimension ref="A2:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -3374,136 +4185,147 @@
       <c r="P3" s="27"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="A4" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46">
+        <v>1</v>
+      </c>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="28"/>
